--- a/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/4U1U4I4I3I.xlsx
+++ b/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/4U1U4I4I3I.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498FE90F-55BB-4B48-B89B-812E79ABF064}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7478A6-4018-45EF-A63A-197150FAB009}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -776,7 +776,7 @@
   <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:J13"/>
+      <selection activeCell="E17" sqref="E17:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,7 +1577,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1652,8 +1652,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1746,7 +1746,7 @@
         <v>93</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1850,7 +1850,7 @@
         <v>106</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1858,7 +1858,7 @@
         <v>107</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1866,7 +1866,7 @@
         <v>108</v>
       </c>
       <c r="B26">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1874,7 +1874,7 @@
         <v>109</v>
       </c>
       <c r="B27">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1898,7 +1898,7 @@
         <v>112</v>
       </c>
       <c r="B30">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2000,7 +2000,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
